--- a/CSVs/xlsx/task12.xlsx
+++ b/CSVs/xlsx/task12.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Stuff\OpenMP\CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\source\repos\Univ\OpenMP\Lab1\CSVs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
   </bookViews>
   <sheets>
     <sheet name="task11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -696,7 +696,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -793,7 +793,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -890,7 +890,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -987,7 +987,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1084,7 +1084,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1181,7 +1181,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1284,7 +1284,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1298,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389261544"/>
-        <c:axId val="389260232"/>
+        <c:axId val="-2062286672"/>
+        <c:axId val="-2062277968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389261544"/>
+        <c:axId val="-2062286672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1412,15 +1412,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389260232"/>
+        <c:crossAx val="-2062277968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389260232"/>
+        <c:axId val="-2062277968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1536,10 +1536,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389261544"/>
+        <c:crossAx val="-2062286672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,7 +1579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1609,7 +1609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2476,13 +2476,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.0766900000000001E-2</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>2.2590699999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4.06088</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>4.53512</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>16.848400000000002</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>11.3833</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>80.056200000000004</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>42.757300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>156.625</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>80.084900000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>257.697</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>142.755</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>412.44799999999998</v>
       </c>
